--- a/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Sales_Organization_metadata.xlsx
+++ b/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Sales_Organization_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEIS732\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T04_M2_D2_MDM_Metadata_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC77237-ACB4-4ECE-A7A9-DC72917847CC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36343C1-D59B-4AA7-B7A5-F39F2E586280}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{4AEB511D-8706-4EC5-8474-93D7501E35E5}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Sales_Corporate_Head_Of_Sales_Name</t>
   </si>
   <si>
-    <t>Sales_Corporate_KEY</t>
-  </si>
-  <si>
     <t>Sales_Domain_Manager_Name</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Sales_Organization_Dimension</t>
   </si>
   <si>
-    <t>Surrogate Key for Sales Corporate</t>
-  </si>
-  <si>
     <t>Head of Sales Id</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>Domain Manager Id</t>
+  </si>
+  <si>
+    <t>Sales_Corporate_KEY   &lt;PK&gt;</t>
+  </si>
+  <si>
+    <t>Surrogate Key, primary key for Sales Corporate</t>
   </si>
 </sst>
 </file>
@@ -213,13 +213,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -325,38 +325,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -681,7 +681,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -717,31 +717,31 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="20">
+      <c r="A4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>28</v>
+      <c r="C4" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
@@ -749,30 +749,30 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="24">
         <v>16016</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>29</v>
+      <c r="C5" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:8" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>30</v>
+      <c r="B6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -780,14 +780,14 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>31</v>
+      <c r="B7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
@@ -796,14 +796,14 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>32</v>
+      <c r="B8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
@@ -812,14 +812,14 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="24">
         <v>2546</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>33</v>
+      <c r="C9" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
@@ -828,14 +828,14 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>34</v>
+      <c r="B10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
@@ -844,14 +844,14 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>35</v>
+      <c r="B11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -860,14 +860,14 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>36</v>
+      <c r="B12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -876,14 +876,14 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="24">
         <v>6589</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>37</v>
+      <c r="C13" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -892,58 +892,58 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="C17" s="27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="24">
+        <v>25468</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="14">
-        <v>25468</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
